--- a/fileThongKe.xlsx
+++ b/fileThongKe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Mã HĐ</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>Tổng tiền</t>
-  </si>
-  <si>
-    <t>K33333333</t>
-  </si>
-  <si>
-    <t>L002673</t>
-  </si>
-  <si>
-    <t>K53456711</t>
-  </si>
-  <si>
-    <t>13/07/2021 0:00:00 AM</t>
   </si>
   <si>
     <t>T25489929</t>
@@ -373,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,66 +389,32 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>44507</v>
+        <v>44476</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>35000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" s="1">
+        <v>44537</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44476</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44537</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
         <v>150000</v>
       </c>
     </row>
